--- a/src/main/resources/static/files/sample/excel/schedule/scheduleUploadSample.xlsx
+++ b/src/main/resources/static/files/sample/excel/schedule/scheduleUploadSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3TOP_195\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D551A8C3-A99D-4A04-9698-C6A5750F054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFE70E-A314-4DC7-B92E-71C699B49BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2040" windowWidth="26775" windowHeight="17685" xr2:uid="{8F7200AB-5977-4533-B36E-3343C35D5D01}"/>
+    <workbookView xWindow="10125" yWindow="1920" windowWidth="26775" windowHeight="17685" xr2:uid="{8F7200AB-5977-4533-B36E-3343C35D5D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="출금">'데이터 목록'!$D$3:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>회색 배경은 필수 입력!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +95,48 @@
   </si>
   <si>
     <t>일정명*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YELLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경색
+(목록 중 선택,
+미선택 시 BLUE 적용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +162,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -196,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +266,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,8 +279,77 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD1AEF2-4472-48C6-84EE-2FBFCA0E5145}">
-  <dimension ref="B1:H2"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -546,16 +669,17 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="18.625" style="5" customWidth="1"/>
     <col min="4" max="5" width="30.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="8" width="12.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="20.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -568,32 +692,134 @@
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{71BC7498-9455-40E5-B8BB-E14792B286AE}">
+            <xm:f>'데이터 목록'!$F$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{3E91A3FE-21EE-40FA-98E0-A0A45EF5795C}">
+            <xm:f>'데이터 목록'!$F$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{52E82259-DA77-40D5-AE81-45DDF604677A}">
+            <xm:f>'데이터 목록'!$F$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{74FBD76E-5B92-493E-B053-7325C68C8B09}">
+            <xm:f>'데이터 목록'!$F$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{898E5D4E-98B9-4BB0-9A20-4BED369E0599}">
+            <xm:f>'데이터 목록'!$F$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{2A51E9A6-2DF0-49F6-8720-F7C57458F508}">
+            <xm:f>'데이터 목록'!$F$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF00FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{4257346A-DB5F-45EE-835D-1DB887FEE7AA}">
+            <xm:f>'데이터 목록'!$F$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0ABF1758-9B73-4659-9A47-CD4D7F3DB144}">
+            <xm:f>'데이터 목록'!$F$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F3:F1002</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{162945B7-6E83-4957-80BB-B6474DE5D75B}">
+          <x14:formula1>
+            <xm:f>'데이터 목록'!$F$3:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F1002</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7069F2A7-FA03-4812-AAFB-76C896872F9B}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -603,8 +829,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -614,8 +843,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -625,13 +857,44 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/files/sample/excel/schedule/scheduleUploadSample.xlsx
+++ b/src/main/resources/static/files/sample/excel/schedule/scheduleUploadSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3TOP_195\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFE70E-A314-4DC7-B92E-71C699B49BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4098F-D77A-4DFE-B24A-5BD497D6B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10125" yWindow="1920" windowWidth="26775" windowHeight="17685" xr2:uid="{8F7200AB-5977-4533-B36E-3343C35D5D01}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>회색 배경은 필수 입력!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>ORANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YELLOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,7 +275,56 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -304,13 +349,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -333,6 +371,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -693,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>0</v>
@@ -711,17 +756,57 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{71BC7498-9455-40E5-B8BB-E14792B286AE}">
-            <xm:f>'데이터 목록'!$F$3</xm:f>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{0ABF1758-9B73-4659-9A47-CD4D7F3DB144}">
+            <xm:f>'데이터 목록'!$F$9</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFF0000"/>
+                  <bgColor theme="5" tint="-0.499984740745262"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{3E91A3FE-21EE-40FA-98E0-A0A45EF5795C}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{4257346A-DB5F-45EE-835D-1DB887FEE7AA}">
+            <xm:f>'데이터 목록'!$F$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{2A51E9A6-2DF0-49F6-8720-F7C57458F508}">
+            <xm:f>'데이터 목록'!$F$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF00FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{898E5D4E-98B9-4BB0-9A20-4BED369E0599}">
+            <xm:f>'데이터 목록'!$F$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{74FBD76E-5B92-493E-B053-7325C68C8B09}">
+            <xm:f>'데이터 목록'!$F$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{3E91A3FE-21EE-40FA-98E0-A0A45EF5795C}">
             <xm:f>'데이터 목록'!$F$4</xm:f>
             <x14:dxf>
               <fill>
@@ -731,62 +816,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{52E82259-DA77-40D5-AE81-45DDF604677A}">
-            <xm:f>'데이터 목록'!$F$5</xm:f>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{71BC7498-9455-40E5-B8BB-E14792B286AE}">
+            <xm:f>'데이터 목록'!$F$3</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{74FBD76E-5B92-493E-B053-7325C68C8B09}">
-            <xm:f>'데이터 목록'!$F$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{898E5D4E-98B9-4BB0-9A20-4BED369E0599}">
-            <xm:f>'데이터 목록'!$F$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF0070C0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{2A51E9A6-2DF0-49F6-8720-F7C57458F508}">
-            <xm:f>'데이터 목록'!$F$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF00FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{4257346A-DB5F-45EE-835D-1DB887FEE7AA}">
-            <xm:f>'데이터 목록'!$F$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0ABF1758-9B73-4659-9A47-CD4D7F3DB144}">
-            <xm:f>'데이터 목록'!$F$10</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="-0.499984740745262"/>
+                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -799,7 +834,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{162945B7-6E83-4957-80BB-B6474DE5D75B}">
           <x14:formula1>
-            <xm:f>'데이터 목록'!$F$3:$F$10</xm:f>
+            <xm:f>'데이터 목록'!$F$3:$F$9</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F1002</xm:sqref>
         </x14:dataValidation>
@@ -811,7 +846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7069F2A7-FA03-4812-AAFB-76C896872F9B}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -892,11 +927,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
